--- a/biology/Botanique/Rinorea_guianensis/Rinorea_guianensis.xlsx
+++ b/biology/Botanique/Rinorea_guianensis/Rinorea_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rinorea guianensis est une espèce d'arbres de la famille des Violaceae.
-Rinorea guianensis est connu au Brésil, Ajará, Can(n)elha de Jacamin (Pará), Aquariquara(na) (Amazonas, Pará), Amarelinho (Amazonas), Cinzeiro (Bahia), Imbiribatan (Pernambuco), Pau de Gamba (Guanabara, Rio de Janeiro)[3].
+Rinorea guianensis est connu au Brésil, Ajará, Can(n)elha de Jacamin (Pará), Aquariquara(na) (Amazonas, Pará), Amarelinho (Amazonas), Cinzeiro (Bahia), Imbiribatan (Pernambuco), Pau de Gamba (Guanabara, Rio de Janeiro).
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rinorea guianensis est un arbre ou petit arbre atteigant 2 à 20 m de haut. Les rameaux sont apprimés pubérulents à strigilleux, devenant glabrescents avec l'âge.
 Les feuilles sont simples, alternes, avec des pétioles peu pileux devenant ensuite glabrescents, longs de 3-15 mm.
@@ -567,7 +583,7 @@
 Le style est long de 2,5-3,5 mm (dépassant les étamines de 0-0,5(-0,75) mm), filiforme, dressé ou légèrement sigmoïde et pileux à la base, avec un stigmate tronqué, obtus.
 Le fruit est une capsule asymétrique, de forme légèrement oblique, ellipsoïde, acuminée, coriace à subligneuse, de couleur verdâtre à l'état frais, densément pubérulente jaunâtre à strigilleuse, sous-tendue par des pièces florales subpersistantes.
 On compte 3 valves, inégales, la plus grande mesurant 7-10 x 4-5 mm, et les deux plus petites de 4-5 x 1,5-3 mm.
-On compte 1 graines par valve, globuleuse, glabre, brillante, mesurant environ 2 mm de diamètre[3].
+On compte 1 graines par valve, globuleuse, glabre, brillante, mesurant environ 2 mm de diamètre.
 </t>
         </is>
       </c>
@@ -596,10 +612,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Rinorea guianensis est présent de l'Amazonie (Brésil, Pérou) à la Guyane adjacente, mais aussi dans deux zones disjointes : le sud-est du Brésil (refuges forestiers du Pernambouc, Bahia, Rio de Janeiro et la zone entre Rio de Janeiro et Brasilia-Araguia) et la Cordillère côtière du Venezuela (dont Rancho Grande).
-Cette fragmentation est probablement liée à un changement climatique d'un climat plus chaud et humide à un type plus frais et plus sec depuis le début du Tertiaire[4], au soulèvement progressif de la Cordillère depuis le Pliocène, et possiblement aux influences humaines[3].
+Cette fragmentation est probablement liée à un changement climatique d'un climat plus chaud et humide à un type plus frais et plus sec depuis le début du Tertiaire, au soulèvement progressif de la Cordillère depuis le Pliocène, et possiblement aux influences humaines.
 </t>
         </is>
       </c>
@@ -628,10 +646,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rinorea guianensis est présent dans les sous-bois des forêts humides anciennes, secondaires et perturbées, de terre ferme ou périodiquement inondées, autour de 0 à 425 m. Il est commun le long des rivières et des ruisseaux, sur des sols sablonneux à argileux. Il fleurit et fructifie probablement tout au long de l'année[3].
-La dynamaique des populations de Rinorea guianensis a été étudiée[5],[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rinorea guianensis est présent dans les sous-bois des forêts humides anciennes, secondaires et perturbées, de terre ferme ou périodiquement inondées, autour de 0 à 425 m. Il est commun le long des rivières et des ruisseaux, sur des sols sablonneux à argileux. Il fleurit et fructifie probablement tout au long de l'année.
+La dynamaique des populations de Rinorea guianensis a été étudiée,.
 </t>
         </is>
       </c>
@@ -660,9 +680,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Compte tenu des propriétés chimiques et énergétiques du bois de Rinorea guianensis, il présente un intérêt pour la production de charbon de bois et de bois de feu[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Compte tenu des propriétés chimiques et énergétiques du bois de Rinorea guianensis, il présente un intérêt pour la production de charbon de bois et de bois de feu.
 </t>
         </is>
       </c>
@@ -691,9 +713,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[8] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « RINOREA (Guianenſis). (Tabula 93.)
 Arbor mediocris, trunco ſex aut leptem-pedali, ad ſummitatem plurimos ramos rectos emittente ; ramuli alterni. Folia alterna, ovato-oblonga, acuta, dentata, glabra, petiolaca, ſtipulata, stipulis brevibus, deciduis. Flores racemoſi, axillares &amp; terminales ; ſingulus flos pedunculo brevi inſidet, ad baſim duabus ſquamulis munito. 
 Corolla alba. 
